--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="H2">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="I2">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="J2">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.74909533333332</v>
+        <v>41.31538799999999</v>
       </c>
       <c r="N2">
-        <v>173.247286</v>
+        <v>123.946164</v>
       </c>
       <c r="O2">
-        <v>0.3614523877243855</v>
+        <v>0.2650971681450513</v>
       </c>
       <c r="P2">
-        <v>0.3614523877243855</v>
+        <v>0.2650971681450514</v>
       </c>
       <c r="Q2">
-        <v>854.2664285156878</v>
+        <v>368.0556826183119</v>
       </c>
       <c r="R2">
-        <v>7688.397856641191</v>
+        <v>3312.501143564808</v>
       </c>
       <c r="S2">
-        <v>0.02752183840571153</v>
+        <v>0.01651892569791496</v>
       </c>
       <c r="T2">
-        <v>0.02752183840571153</v>
+        <v>0.01651892569791496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="H3">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="I3">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="J3">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>265.478576</v>
       </c>
       <c r="O3">
-        <v>0.5538780283396172</v>
+        <v>0.5678079613724939</v>
       </c>
       <c r="P3">
-        <v>0.5538780283396172</v>
+        <v>0.567807961372494</v>
       </c>
       <c r="Q3">
-        <v>1309.050434227008</v>
+        <v>788.3333808557192</v>
       </c>
       <c r="R3">
-        <v>11781.45390804307</v>
+        <v>7095.000427701472</v>
       </c>
       <c r="S3">
-        <v>0.04217358111370593</v>
+        <v>0.03538165869604702</v>
       </c>
       <c r="T3">
-        <v>0.04217358111370591</v>
+        <v>0.03538165869604703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="H4">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="I4">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="J4">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.52762366666667</v>
+        <v>26.041732</v>
       </c>
       <c r="N4">
-        <v>40.582871</v>
+        <v>78.12519599999999</v>
       </c>
       <c r="O4">
-        <v>0.08466958393599727</v>
+        <v>0.1670948704824547</v>
       </c>
       <c r="P4">
-        <v>0.08466958393599727</v>
+        <v>0.1670948704824547</v>
       </c>
       <c r="Q4">
-        <v>200.110403276868</v>
+        <v>231.9912243792346</v>
       </c>
       <c r="R4">
-        <v>1800.993629491812</v>
+        <v>2087.921019413112</v>
       </c>
       <c r="S4">
-        <v>0.006446942076205667</v>
+        <v>0.01041213593233142</v>
       </c>
       <c r="T4">
-        <v>0.006446942076205667</v>
+        <v>0.01041213593233142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>132.842182</v>
       </c>
       <c r="I5">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="J5">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.74909533333332</v>
+        <v>41.31538799999999</v>
       </c>
       <c r="N5">
-        <v>173.247286</v>
+        <v>123.946164</v>
       </c>
       <c r="O5">
-        <v>0.3614523877243855</v>
+        <v>0.2650971681450513</v>
       </c>
       <c r="P5">
-        <v>0.3614523877243855</v>
+        <v>0.2650971681450514</v>
       </c>
       <c r="Q5">
-        <v>2557.171944202006</v>
+        <v>1829.475430698872</v>
       </c>
       <c r="R5">
-        <v>23014.54749781805</v>
+        <v>16465.27887628985</v>
       </c>
       <c r="S5">
-        <v>0.08238421957682532</v>
+        <v>0.08210977342038746</v>
       </c>
       <c r="T5">
-        <v>0.08238421957682532</v>
+        <v>0.08210977342038747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>132.842182</v>
       </c>
       <c r="I6">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="J6">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>265.478576</v>
       </c>
       <c r="O6">
-        <v>0.5538780283396172</v>
+        <v>0.5678079613724939</v>
       </c>
       <c r="P6">
-        <v>0.5538780283396172</v>
+        <v>0.567807961372494</v>
       </c>
       <c r="Q6">
         <v>3918.528145565871</v>
@@ -818,10 +818,10 @@
         <v>35266.75331009283</v>
       </c>
       <c r="S6">
-        <v>0.1262429317255043</v>
+        <v>0.1758697891072056</v>
       </c>
       <c r="T6">
-        <v>0.1262429317255043</v>
+        <v>0.1758697891072056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>132.842182</v>
       </c>
       <c r="I7">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="J7">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.52762366666667</v>
+        <v>26.041732</v>
       </c>
       <c r="N7">
-        <v>40.582871</v>
+        <v>78.12519599999999</v>
       </c>
       <c r="O7">
-        <v>0.08466958393599727</v>
+        <v>0.1670948704824547</v>
       </c>
       <c r="P7">
-        <v>0.08466958393599727</v>
+        <v>0.1670948704824547</v>
       </c>
       <c r="Q7">
-        <v>599.0130150516137</v>
+        <v>1153.146833979741</v>
       </c>
       <c r="R7">
-        <v>5391.117135464523</v>
+        <v>10378.32150581767</v>
       </c>
       <c r="S7">
-        <v>0.01929835804482373</v>
+        <v>0.05175506796630965</v>
       </c>
       <c r="T7">
-        <v>0.01929835804482373</v>
+        <v>0.05175506796630965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="H8">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="I8">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="J8">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.74909533333332</v>
+        <v>41.31538799999999</v>
       </c>
       <c r="N8">
-        <v>173.247286</v>
+        <v>123.946164</v>
       </c>
       <c r="O8">
-        <v>0.3614523877243855</v>
+        <v>0.2650971681450513</v>
       </c>
       <c r="P8">
-        <v>0.3614523877243855</v>
+        <v>0.2650971681450514</v>
       </c>
       <c r="Q8">
-        <v>7807.893555185019</v>
+        <v>3709.058756151371</v>
       </c>
       <c r="R8">
-        <v>70271.04199666518</v>
+        <v>33381.52880536234</v>
       </c>
       <c r="S8">
-        <v>0.2515463297418487</v>
+        <v>0.1664684690267489</v>
       </c>
       <c r="T8">
-        <v>0.2515463297418487</v>
+        <v>0.1664684690267489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="H9">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="I9">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="J9">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>265.478576</v>
       </c>
       <c r="O9">
-        <v>0.5538780283396172</v>
+        <v>0.5678079613724939</v>
       </c>
       <c r="P9">
-        <v>0.5538780283396172</v>
+        <v>0.567807961372494</v>
       </c>
       <c r="Q9">
-        <v>11964.56527803902</v>
+        <v>7944.381698520315</v>
       </c>
       <c r="R9">
-        <v>107681.0875023512</v>
+        <v>71499.43528668283</v>
       </c>
       <c r="S9">
-        <v>0.385461515500407</v>
+        <v>0.3565565135692413</v>
       </c>
       <c r="T9">
-        <v>0.3854615155004069</v>
+        <v>0.3565565135692414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="H10">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="I10">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="J10">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.52762366666667</v>
+        <v>26.041732</v>
       </c>
       <c r="N10">
-        <v>40.582871</v>
+        <v>78.12519599999999</v>
       </c>
       <c r="O10">
-        <v>0.08466958393599727</v>
+        <v>0.1670948704824547</v>
       </c>
       <c r="P10">
-        <v>0.08466958393599727</v>
+        <v>0.1670948704824547</v>
       </c>
       <c r="Q10">
-        <v>1828.985285990599</v>
+        <v>2337.877453793908</v>
       </c>
       <c r="R10">
-        <v>16460.86757391539</v>
+        <v>21040.89708414517</v>
       </c>
       <c r="S10">
-        <v>0.05892428381496788</v>
+        <v>0.1049276665838137</v>
       </c>
       <c r="T10">
-        <v>0.05892428381496786</v>
+        <v>0.1049276665838137</v>
       </c>
     </row>
   </sheetData>
